--- a/Optimization Results/Comparison of triplicate.xlsx
+++ b/Optimization Results/Comparison of triplicate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterfu/Desktop/MitoLength/Optimization Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0D8FC9-AAF7-384E-990D-41D272F5E22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BA88AA-7723-CE4B-BBA4-F3AA27227EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17120" xr2:uid="{FD22E4DB-F234-EE4F-8EDA-6A34D01269EE}"/>
   </bookViews>
@@ -1663,7 +1663,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Optimization Results/Comparison of triplicate.xlsx
+++ b/Optimization Results/Comparison of triplicate.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterfu/Desktop/MitoLength/Optimization Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BA88AA-7723-CE4B-BBA4-F3AA27227EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FC15BD-C774-6741-A8DE-242100DE3364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17120" xr2:uid="{FD22E4DB-F234-EE4F-8EDA-6A34D01269EE}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17120" activeTab="1" xr2:uid="{FD22E4DB-F234-EE4F-8EDA-6A34D01269EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,8 +54,26 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A7D9D557-2760-8D45-92AB-207B013DABC5}</author>
+  </authors>
+  <commentList>
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{A7D9D557-2760-8D45-92AB-207B013DABC5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    5 mins intervals</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Optimization</t>
   </si>
@@ -162,7 +181,77 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1658,12 +1747,20 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A6" dT="2023-08-01T09:19:39.66" personId="{698C499A-200A-E74C-B42F-7EE198C30294}" id="{A7D9D557-2760-8D45-92AB-207B013DABC5}">
+    <text>5 mins intervals</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7D84DF-0341-DF44-95C9-1223F039D6DE}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1899,23 +1996,260 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J3">
-    <cfRule type="top10" dxfId="5" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="top10" dxfId="4" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="top10" dxfId="3" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6">
-    <cfRule type="top10" dxfId="2" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="1" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:M1">
-    <cfRule type="top10" dxfId="1" priority="5" rank="1"/>
-    <cfRule type="top10" dxfId="0" priority="6" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="8" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="6" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A218E1AF-0823-C64C-9B94-EAE786F321F8}">
+  <dimension ref="A1:L6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>0.99204620600000004</v>
+      </c>
+      <c r="F2">
+        <v>0.76422764200000004</v>
+      </c>
+      <c r="G2">
+        <v>94</v>
+      </c>
+      <c r="H2">
+        <v>12</v>
+      </c>
+      <c r="I2">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.7653538600000001</v>
+      </c>
+      <c r="L2">
+        <v>106.76575708047294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>2500</v>
+      </c>
+      <c r="E3">
+        <v>0.99901647500000001</v>
+      </c>
+      <c r="F3">
+        <v>0.76923076899999998</v>
+      </c>
+      <c r="G3">
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>1.7852382440000001</v>
+      </c>
+      <c r="L3">
+        <v>1763.6932754577881</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>3500</v>
+      </c>
+      <c r="E4">
+        <v>0.99864533799999999</v>
+      </c>
+      <c r="F4">
+        <v>0.71621621599999996</v>
+      </c>
+      <c r="G4">
+        <v>53</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>1.7148615540000001</v>
+      </c>
+      <c r="L4">
+        <v>1658.142078214664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>3000</v>
+      </c>
+      <c r="E5">
+        <v>0.99853586800000005</v>
+      </c>
+      <c r="F5">
+        <v>0.72549019599999998</v>
+      </c>
+      <c r="G5">
+        <v>74</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>23</v>
+      </c>
+      <c r="K5">
+        <v>1.7337288989999999</v>
+      </c>
+      <c r="L5">
+        <v>1524.1167668405865</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6">
+        <v>0.99099090052693195</v>
+      </c>
+      <c r="F6">
+        <v>0.71246006389776295</v>
+      </c>
+      <c r="G6">
+        <v>223</v>
+      </c>
+      <c r="H6">
+        <v>41</v>
+      </c>
+      <c r="I6">
+        <v>49</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6" si="0">SUM(E6:F6)</f>
+        <v>1.7034509644246949</v>
+      </c>
+      <c r="L6">
+        <v>155.85941172202132</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="top10" dxfId="6" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="top10" dxfId="5" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="top10" dxfId="4" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="top10" dxfId="3" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:L1">
+    <cfRule type="top10" dxfId="2" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="6" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>